--- a/data/Yield determination survey.xlsx
+++ b/data/Yield determination survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uinnlandet-my.sharepoint.com/personal/mabel_nabateregga_inn_no/Documents/Documents/GitHub/bean-yield-estimation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\bean-yield-estimation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{56C1315D-3035-8E43-9161-1E3DEFA7A461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F346942-A136-424A-AD01-CAD7FB9BBDE4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19548511-D14D-4730-B659-CD15F6CCD2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{86CAF366-0E07-4B88-A0CE-48FCDD557E7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{86CAF366-0E07-4B88-A0CE-48FCDD557E7E}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="15" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="650">
   <si>
     <t>NA</t>
   </si>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>NOT MARKETABLE</t>
-  </si>
-  <si>
-    <t>0..25</t>
   </si>
   <si>
     <t>O.51</t>
@@ -2840,58 +2837,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B7" s="46"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B8" s="44">
         <v>44936</v>
@@ -2899,42 +2896,42 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
+        <v>610</v>
+      </c>
+      <c r="B11" s="43" t="s">
         <v>611</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
+        <v>612</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>613</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2953,9 +2950,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF0E47F-26FF-449C-9A17-14B3E133576A}">
   <dimension ref="A1:HE32"/>
   <sheetViews>
-    <sheetView topLeftCell="BK1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BU1" sqref="BU1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BP25" sqref="BP25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2964,7 +2961,7 @@
     <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" customWidth="1"/>
     <col min="9" max="9" width="9.109375" customWidth="1"/>
     <col min="10" max="10" width="10.109375" customWidth="1"/>
@@ -3018,6 +3015,7 @@
     <col min="63" max="63" width="9" customWidth="1"/>
     <col min="64" max="64" width="9.77734375" customWidth="1"/>
     <col min="65" max="66" width="8.6640625" customWidth="1"/>
+    <col min="68" max="68" width="15.6640625" customWidth="1"/>
     <col min="72" max="72" width="9.6640625" style="7" customWidth="1"/>
     <col min="73" max="74" width="8.77734375" style="7"/>
     <col min="75" max="75" width="8.6640625" customWidth="1"/>
@@ -3058,643 +3056,643 @@
   <sheetData>
     <row r="1" spans="1:213" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y1" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="Z1" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA1" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="AC1" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="AD1" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="AE1" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="AG1" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH1" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ1" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="AK1" s="25" t="s">
+        <v>630</v>
+      </c>
+      <c r="AL1" s="25" t="s">
+        <v>631</v>
+      </c>
+      <c r="AM1" s="25" t="s">
+        <v>633</v>
+      </c>
+      <c r="AN1" s="25" t="s">
+        <v>634</v>
+      </c>
+      <c r="AO1" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="AP1" s="25" t="s">
+        <v>635</v>
+      </c>
+      <c r="AQ1" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="AR1" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="AS1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT1" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU1" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV1" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="AW1" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="AX1" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="AY1" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ1" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="BA1" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="BB1" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="BC1" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD1" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE1" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="BF1" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG1" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH1" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI1" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ1" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="BK1" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="BL1" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="BM1" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="BN1" s="25" t="s">
+        <v>641</v>
+      </c>
+      <c r="BO1" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="BP1" s="25" t="s">
+        <v>643</v>
+      </c>
+      <c r="BQ1" s="25" t="s">
+        <v>644</v>
+      </c>
+      <c r="BR1" s="25" t="s">
+        <v>645</v>
+      </c>
+      <c r="BS1" s="25" t="s">
+        <v>646</v>
+      </c>
+      <c r="BT1" s="29" t="s">
+        <v>647</v>
+      </c>
+      <c r="BU1" s="29" t="s">
+        <v>648</v>
+      </c>
+      <c r="BV1" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="BW1" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BX1" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="BY1" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="BZ1" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="CA1" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>628</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>629</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>467</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="U1" s="21" t="s">
+      <c r="CB1" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="CC1" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="CD1" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="CE1" s="36" t="s">
         <v>560</v>
       </c>
-      <c r="V1" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="W1" s="24" t="s">
-        <v>495</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y1" s="24" t="s">
-        <v>497</v>
-      </c>
-      <c r="Z1" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="AA1" s="24" t="s">
-        <v>499</v>
-      </c>
-      <c r="AB1" s="24" t="s">
-        <v>500</v>
-      </c>
-      <c r="AC1" s="24" t="s">
-        <v>501</v>
-      </c>
-      <c r="AD1" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="AE1" s="22" t="s">
-        <v>506</v>
-      </c>
-      <c r="AF1" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="AG1" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH1" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI1" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ1" s="25" t="s">
-        <v>630</v>
-      </c>
-      <c r="AK1" s="25" t="s">
-        <v>631</v>
-      </c>
-      <c r="AL1" s="25" t="s">
-        <v>632</v>
-      </c>
-      <c r="AM1" s="25" t="s">
-        <v>634</v>
-      </c>
-      <c r="AN1" s="25" t="s">
-        <v>635</v>
-      </c>
-      <c r="AO1" s="25" t="s">
-        <v>633</v>
-      </c>
-      <c r="AP1" s="25" t="s">
-        <v>636</v>
-      </c>
-      <c r="AQ1" s="25" t="s">
-        <v>637</v>
-      </c>
-      <c r="AR1" s="25" t="s">
-        <v>638</v>
-      </c>
-      <c r="AS1" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT1" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU1" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AV1" s="22" t="s">
-        <v>639</v>
-      </c>
-      <c r="AW1" s="22" t="s">
-        <v>640</v>
-      </c>
-      <c r="AX1" s="22" t="s">
-        <v>641</v>
-      </c>
-      <c r="AY1" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="AZ1" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="BA1" s="22" t="s">
-        <v>511</v>
-      </c>
-      <c r="BB1" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="BC1" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD1" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="BE1" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="BF1" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="BG1" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="BH1" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="BI1" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="BJ1" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="BK1" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="BL1" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="BM1" s="21" t="s">
-        <v>527</v>
-      </c>
-      <c r="BN1" s="25" t="s">
-        <v>642</v>
-      </c>
-      <c r="BO1" s="25" t="s">
-        <v>643</v>
-      </c>
-      <c r="BP1" s="25" t="s">
-        <v>644</v>
-      </c>
-      <c r="BQ1" s="25" t="s">
-        <v>645</v>
-      </c>
-      <c r="BR1" s="25" t="s">
-        <v>646</v>
-      </c>
-      <c r="BS1" s="25" t="s">
-        <v>647</v>
-      </c>
-      <c r="BT1" s="29" t="s">
-        <v>648</v>
-      </c>
-      <c r="BU1" s="29" t="s">
-        <v>649</v>
-      </c>
-      <c r="BV1" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="BW1" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="BX1" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="BY1" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="BZ1" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="CA1" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="CB1" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="CC1" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="CD1" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="CE1" s="36" t="s">
-        <v>561</v>
-      </c>
       <c r="CF1" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="CG1" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="CG1" s="22" t="s">
+      <c r="CH1" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="CH1" s="22" t="s">
+      <c r="CI1" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="CI1" s="22" t="s">
+      <c r="CJ1" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="CJ1" s="22" t="s">
+      <c r="CK1" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="CK1" s="22" t="s">
+      <c r="CL1" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="CL1" s="22" t="s">
+      <c r="CM1" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="CM1" s="22" t="s">
+      <c r="CN1" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="CN1" s="30" t="s">
-        <v>174</v>
-      </c>
       <c r="CO1" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="CP1" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="CP1" s="31" t="s">
+      <c r="CQ1" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="CQ1" s="31" t="s">
+      <c r="CR1" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="CR1" s="31" t="s">
+      <c r="CS1" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="CS1" s="31" t="s">
+      <c r="CT1" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="CT1" s="31" t="s">
+      <c r="CU1" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="CU1" s="31" t="s">
+      <c r="CV1" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="CV1" s="31" t="s">
+      <c r="CW1" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="CW1" s="31" t="s">
-        <v>269</v>
-      </c>
       <c r="CX1" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="CY1" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="CY1" s="32" t="s">
+      <c r="CZ1" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="CZ1" s="32" t="s">
+      <c r="DA1" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="DA1" s="32" t="s">
+      <c r="DB1" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="DB1" s="32" t="s">
+      <c r="DC1" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="DC1" s="32" t="s">
+      <c r="DD1" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="DD1" s="32" t="s">
+      <c r="DE1" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="DE1" s="32" t="s">
+      <c r="DF1" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="DF1" s="32" t="s">
+      <c r="DG1" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="DG1" s="32" t="s">
+      <c r="DH1" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="DH1" s="32" t="s">
+      <c r="DI1" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="DI1" s="32" t="s">
+      <c r="DJ1" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="DJ1" s="32" t="s">
+      <c r="DK1" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="DK1" s="32" t="s">
+      <c r="DL1" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="DL1" s="32" t="s">
+      <c r="DM1" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="DM1" s="32" t="s">
+      <c r="DN1" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="DN1" s="32" t="s">
+      <c r="DO1" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="DO1" s="32" t="s">
+      <c r="DP1" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="DP1" s="32" t="s">
+      <c r="DQ1" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="DQ1" s="32" t="s">
+      <c r="DR1" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="DR1" s="32" t="s">
+      <c r="DS1" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="DS1" s="32" t="s">
+      <c r="DT1" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="DT1" s="32" t="s">
+      <c r="DU1" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="DU1" s="32" t="s">
+      <c r="DV1" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="DV1" s="32" t="s">
+      <c r="DW1" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="DW1" s="32" t="s">
+      <c r="DX1" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="DX1" s="32" t="s">
+      <c r="DY1" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="DY1" s="32" t="s">
+      <c r="DZ1" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="DZ1" s="32" t="s">
+      <c r="EA1" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="EA1" s="32" t="s">
+      <c r="EB1" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="EB1" s="32" t="s">
+      <c r="EC1" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="EC1" s="32" t="s">
+      <c r="ED1" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="ED1" s="32" t="s">
+      <c r="EE1" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="EE1" s="32" t="s">
+      <c r="EF1" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="EF1" s="32" t="s">
+      <c r="EG1" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="EG1" s="32" t="s">
+      <c r="EH1" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="EH1" s="32" t="s">
+      <c r="EI1" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="EI1" s="32" t="s">
+      <c r="EJ1" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="EJ1" s="32" t="s">
+      <c r="EK1" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="EK1" s="32" t="s">
+      <c r="EL1" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="EL1" s="32" t="s">
+      <c r="EM1" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="EM1" s="32" t="s">
+      <c r="EN1" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="EN1" s="32" t="s">
+      <c r="EO1" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="EO1" s="32" t="s">
+      <c r="EP1" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="EP1" s="32" t="s">
+      <c r="EQ1" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="EQ1" s="32" t="s">
+      <c r="ER1" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="ER1" s="32" t="s">
+      <c r="ES1" s="32" t="s">
         <v>325</v>
       </c>
-      <c r="ES1" s="32" t="s">
+      <c r="ET1" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="ET1" s="32" t="s">
+      <c r="EU1" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="EU1" s="32" t="s">
+      <c r="EV1" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="EV1" s="32" t="s">
+      <c r="EW1" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="EW1" s="32" t="s">
+      <c r="EX1" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="EX1" s="32" t="s">
+      <c r="EY1" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="EY1" s="32" t="s">
+      <c r="EZ1" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="EZ1" s="32" t="s">
+      <c r="FA1" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="FA1" s="32" t="s">
+      <c r="FB1" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="FB1" s="32" t="s">
+      <c r="FC1" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="FC1" s="32" t="s">
+      <c r="FD1" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="FD1" s="32" t="s">
+      <c r="FE1" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="FE1" s="32" t="s">
+      <c r="FF1" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="FF1" s="33" t="s">
+      <c r="FG1" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="FG1" s="33" t="s">
+      <c r="FH1" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="FH1" s="33" t="s">
+      <c r="FI1" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="FI1" s="33" t="s">
+      <c r="FJ1" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="FJ1" s="33" t="s">
+      <c r="FK1" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="FK1" s="33" t="s">
+      <c r="FL1" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="FL1" s="33" t="s">
+      <c r="FM1" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="FM1" s="33" t="s">
+      <c r="FN1" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="FN1" s="33" t="s">
+      <c r="FO1" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="FO1" s="33" t="s">
+      <c r="FP1" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="FP1" s="32" t="s">
+      <c r="FQ1" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="FQ1" s="32" t="s">
+      <c r="FR1" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="FR1" s="32" t="s">
+      <c r="FS1" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="FS1" s="32" t="s">
+      <c r="FT1" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="FT1" s="32" t="s">
+      <c r="FU1" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="FU1" s="32" t="s">
+      <c r="FV1" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="FV1" s="32" t="s">
+      <c r="FW1" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="FW1" s="32" t="s">
+      <c r="FX1" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="FX1" s="32" t="s">
+      <c r="FY1" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="FY1" s="32" t="s">
+      <c r="FZ1" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="FZ1" s="32" t="s">
+      <c r="GA1" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="GA1" s="32" t="s">
+      <c r="GB1" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="GB1" s="32" t="s">
+      <c r="GC1" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="GC1" s="32" t="s">
+      <c r="GD1" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="GD1" s="32" t="s">
+      <c r="GE1" s="32" t="s">
         <v>363</v>
       </c>
-      <c r="GE1" s="32" t="s">
+      <c r="GF1" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="GF1" s="32" t="s">
+      <c r="GG1" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="GG1" s="32" t="s">
+      <c r="GH1" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="GH1" s="32" t="s">
+      <c r="GI1" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="GI1" s="32" t="s">
-        <v>368</v>
-      </c>
       <c r="GJ1" s="35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="GK1" s="35" t="s">
+        <v>537</v>
+      </c>
+      <c r="GL1" s="39" t="s">
         <v>538</v>
       </c>
-      <c r="GL1" s="39" t="s">
+      <c r="GM1" s="39" t="s">
         <v>539</v>
       </c>
-      <c r="GM1" s="39" t="s">
+      <c r="GN1" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="GN1" s="39" t="s">
+      <c r="GO1" s="39" t="s">
         <v>541</v>
       </c>
-      <c r="GO1" s="39" t="s">
+      <c r="GP1" s="35" t="s">
         <v>542</v>
       </c>
-      <c r="GP1" s="35" t="s">
-        <v>543</v>
-      </c>
       <c r="GQ1" s="38" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="GR1" s="38" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="GS1" s="36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="GT1" s="36" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="GU1" s="36" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="GV1" s="36" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="GW1" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="GX1" s="38" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="GY1" s="36" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="GZ1" s="37" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="HA1" s="37" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="HB1" s="36" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="HC1" s="36" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="HD1" s="38" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="HE1" s="20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:213" x14ac:dyDescent="0.3">
@@ -3705,10 +3703,10 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -3759,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="V2" s="1">
         <v>1</v>
@@ -4346,10 +4344,10 @@
         <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
@@ -4388,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
@@ -4946,7 +4944,7 @@
         <v>2</v>
       </c>
       <c r="GU3" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="GV3" s="1">
         <v>1</v>
@@ -4987,10 +4985,10 @@
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -5029,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>0</v>
@@ -5587,7 +5585,7 @@
         <v>2</v>
       </c>
       <c r="GU4" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="GV4" s="1">
         <v>1</v>
@@ -5628,10 +5626,10 @@
         <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
@@ -6258,7 +6256,7 @@
         <v>2</v>
       </c>
       <c r="HE5" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:213" x14ac:dyDescent="0.3">
@@ -6269,10 +6267,10 @@
         <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
@@ -6311,7 +6309,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="R6" s="1">
         <v>4</v>
@@ -6869,7 +6867,7 @@
         <v>3</v>
       </c>
       <c r="GU6" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="GV6" s="1">
         <v>1</v>
@@ -6899,7 +6897,7 @@
         <v>2</v>
       </c>
       <c r="HE6" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:213" x14ac:dyDescent="0.3">
@@ -6910,10 +6908,10 @@
         <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -6952,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R7" s="1">
         <v>1</v>
@@ -7551,10 +7549,10 @@
         <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>1</v>
@@ -7593,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R8" s="1">
         <v>1</v>
@@ -8192,10 +8190,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>1</v>
@@ -8234,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R9" s="1">
         <v>1</v>
@@ -8833,10 +8831,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>1</v>
@@ -8875,7 +8873,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="R10" s="1">
         <v>1</v>
@@ -8992,7 +8990,7 @@
         <v>1</v>
       </c>
       <c r="BD10" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="BE10" s="4">
         <v>0.5</v>
@@ -9463,7 +9461,7 @@
         <v>2</v>
       </c>
       <c r="HE10" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11" spans="1:213" x14ac:dyDescent="0.3">
@@ -9474,10 +9472,10 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>2</v>
@@ -9516,7 +9514,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
@@ -10115,10 +10113,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
@@ -10157,7 +10155,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="R12" s="1">
         <v>5</v>
@@ -10756,10 +10754,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>1</v>
@@ -10798,7 +10796,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>0</v>
@@ -10915,7 +10913,7 @@
         <v>1</v>
       </c>
       <c r="BD13" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BE13" s="5">
         <v>0.64</v>
@@ -11377,7 +11375,7 @@
         <v>9</v>
       </c>
       <c r="HB13" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="HC13" s="1">
         <v>0</v>
@@ -11386,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="HE13" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" spans="1:213" x14ac:dyDescent="0.3">
@@ -11397,10 +11395,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>1</v>
@@ -11439,7 +11437,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="R14" s="1">
         <v>7</v>
@@ -11556,7 +11554,7 @@
         <v>1</v>
       </c>
       <c r="BD14" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BE14" s="5">
         <v>0.83399999999999996</v>
@@ -11604,7 +11602,7 @@
         <v>0.9</v>
       </c>
       <c r="BT14" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BU14" s="6">
         <v>0.56000000000000005</v>
@@ -12018,7 +12016,7 @@
         <v>9</v>
       </c>
       <c r="HB14" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="HC14" s="1">
         <v>0</v>
@@ -12027,7 +12025,7 @@
         <v>1</v>
       </c>
       <c r="HE14" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:213" x14ac:dyDescent="0.3">
@@ -12038,10 +12036,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>1</v>
@@ -12080,7 +12078,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="R15" s="1">
         <v>1</v>
@@ -12659,7 +12657,7 @@
         <v>5</v>
       </c>
       <c r="HB15" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="HC15" s="1">
         <v>1</v>
@@ -12668,7 +12666,7 @@
         <v>2</v>
       </c>
       <c r="HE15" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16" spans="1:213" x14ac:dyDescent="0.3">
@@ -12679,10 +12677,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>1</v>
@@ -12721,7 +12719,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="R16" s="1">
         <v>7</v>
@@ -13279,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="GU16" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="GV16" s="1">
         <v>1</v>
@@ -13320,10 +13318,10 @@
         <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>1</v>
@@ -13961,10 +13959,10 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>1</v>
@@ -14177,7 +14175,7 @@
         <v>0.11</v>
       </c>
       <c r="BW18" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="BX18" s="1">
         <v>3</v>
@@ -14602,10 +14600,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>1</v>
@@ -14644,7 +14642,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="R19" s="1">
         <v>6</v>
@@ -14818,7 +14816,7 @@
         <v>0.68</v>
       </c>
       <c r="BW19" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="BX19" s="1">
         <v>1</v>
@@ -15243,10 +15241,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>1</v>
@@ -15285,7 +15283,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="R20" s="1">
         <v>1</v>
@@ -15884,10 +15882,10 @@
         <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>1</v>
@@ -15926,7 +15924,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="R21" s="1">
         <v>1</v>
@@ -16525,10 +16523,10 @@
         <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>1</v>
@@ -16567,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>0</v>
@@ -16579,7 +16577,7 @@
         <v>1</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="V22" s="1">
         <v>2</v>
@@ -17146,7 +17144,7 @@
         <v>1</v>
       </c>
       <c r="HB22" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="HC22" s="1">
         <v>1</v>
@@ -17155,7 +17153,7 @@
         <v>1</v>
       </c>
       <c r="HE22" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:213" x14ac:dyDescent="0.3">
@@ -17166,10 +17164,10 @@
         <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>1</v>
@@ -17208,7 +17206,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="R23" s="1">
         <v>5</v>
@@ -17325,7 +17323,7 @@
         <v>1</v>
       </c>
       <c r="BD23" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="BE23" s="5">
         <v>0.03</v>
@@ -17807,10 +17805,10 @@
         <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>1</v>
@@ -17849,7 +17847,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="R24" s="1">
         <v>1</v>
@@ -18023,7 +18021,7 @@
         <v>3.44</v>
       </c>
       <c r="BW24" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BX24" s="1">
         <v>3</v>
@@ -18448,10 +18446,10 @@
         <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>3</v>
@@ -18643,7 +18641,7 @@
         <v>0.25</v>
       </c>
       <c r="BP25" s="1">
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="BQ25" s="1">
         <v>0.25</v>
@@ -18664,7 +18662,7 @@
         <v>0.12</v>
       </c>
       <c r="BW25" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BX25" s="1">
         <v>2</v>
@@ -19048,7 +19046,7 @@
         <v>2</v>
       </c>
       <c r="GU25" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="GV25" s="1">
         <v>1</v>
@@ -19089,10 +19087,10 @@
         <v>241</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>3</v>
@@ -19305,7 +19303,7 @@
         <v>0.15</v>
       </c>
       <c r="BW26" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BX26" s="1">
         <v>2</v>
@@ -19689,7 +19687,7 @@
         <v>2</v>
       </c>
       <c r="GU26" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="GV26" s="1">
         <v>1</v>
@@ -19730,16 +19728,16 @@
         <v>170</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>0</v>
@@ -19946,7 +19944,7 @@
         <v>0.74</v>
       </c>
       <c r="BW27" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BX27" s="1">
         <v>2</v>
@@ -19970,7 +19968,7 @@
         <v>1</v>
       </c>
       <c r="CE27" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="CF27" s="1">
         <v>12.7</v>
@@ -20330,7 +20328,7 @@
         <v>3</v>
       </c>
       <c r="GU27" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="GV27" s="1">
         <v>1</v>
@@ -20360,7 +20358,7 @@
         <v>1</v>
       </c>
       <c r="HE27" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="28" spans="1:213" x14ac:dyDescent="0.3">
@@ -20371,10 +20369,10 @@
         <v>99</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>3</v>
@@ -20425,7 +20423,7 @@
         <v>1</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="V28" s="1">
         <v>1</v>
@@ -20971,7 +20969,7 @@
         <v>2</v>
       </c>
       <c r="GU28" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="GV28" s="1">
         <v>1</v>
@@ -21012,16 +21010,16 @@
         <v>96</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>0</v>
@@ -21228,7 +21226,7 @@
         <v>1.44</v>
       </c>
       <c r="BW29" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BX29" s="1">
         <v>2</v>
@@ -21642,7 +21640,7 @@
         <v>1</v>
       </c>
       <c r="HE29" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="30" spans="1:213" x14ac:dyDescent="0.3">
@@ -21653,10 +21651,10 @@
         <v>217</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>3</v>
@@ -21869,7 +21867,7 @@
         <v>1.62</v>
       </c>
       <c r="BW30" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BX30" s="1">
         <v>1</v>
@@ -22253,7 +22251,7 @@
         <v>3</v>
       </c>
       <c r="GU30" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="GV30" s="1">
         <v>1</v>
@@ -22294,16 +22292,16 @@
         <v>218</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>0</v>
@@ -22488,8 +22486,8 @@
       <c r="BO31" s="1">
         <v>0.75</v>
       </c>
-      <c r="BP31" s="1" t="s">
-        <v>57</v>
+      <c r="BP31" s="1">
+        <v>0.25</v>
       </c>
       <c r="BQ31" s="1">
         <v>1.1000000000000001</v>
@@ -22894,7 +22892,7 @@
         <v>3</v>
       </c>
       <c r="GU31" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="GV31" s="1">
         <v>1</v>
@@ -22924,7 +22922,7 @@
         <v>1</v>
       </c>
       <c r="HE31" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="32" spans="1:213" x14ac:dyDescent="0.3">
@@ -22935,16 +22933,16 @@
         <v>160</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>0</v>
@@ -22989,7 +22987,7 @@
         <v>1</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="V32" s="1">
         <v>1</v>
@@ -23151,7 +23149,7 @@
         <v>1.26</v>
       </c>
       <c r="BW32" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BX32" s="1">
         <v>2</v>
@@ -23565,7 +23563,7 @@
         <v>1</v>
       </c>
       <c r="HE32" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -23591,156 +23589,156 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B1" s="49" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="D1" s="49" t="s">
         <v>600</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
       <c r="D3" s="52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
       <c r="D4" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
       <c r="D5" s="52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
       <c r="D6" s="52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
       <c r="D7" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
       <c r="D8" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="54">
         <v>1</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E9" s="54"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="54">
         <v>2</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E10" s="54"/>
     </row>
     <row r="11" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
       <c r="D11" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="57"/>
       <c r="C12" s="57"/>
       <c r="D12" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="57"/>
       <c r="C13" s="57"/>
       <c r="D13" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B14" s="58"/>
       <c r="C14" s="58"/>
       <c r="D14" s="55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -23748,7 +23746,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -23756,17 +23754,17 @@
         <v>0</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B17" s="58"/>
       <c r="C17" s="58"/>
       <c r="D17" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -23774,7 +23772,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -23782,17 +23780,17 @@
         <v>0</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B20" s="58"/>
       <c r="C20" s="58"/>
       <c r="D20" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -23800,7 +23798,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -23808,17 +23806,17 @@
         <v>0</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B23" s="58"/>
       <c r="C23" s="58"/>
       <c r="D23" s="55" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -23826,7 +23824,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -23834,7 +23832,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -23842,7 +23840,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -23850,7 +23848,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="54" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -23858,7 +23856,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -23866,17 +23864,17 @@
         <v>6</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="58" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B30" s="58"/>
       <c r="C30" s="58"/>
       <c r="D30" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -23884,7 +23882,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -23892,7 +23890,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -23900,7 +23898,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -23908,7 +23906,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -23916,7 +23914,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -23924,7 +23922,7 @@
         <v>6</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -23932,7 +23930,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -23940,27 +23938,27 @@
         <v>8</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" s="57"/>
       <c r="C39" s="57"/>
       <c r="D39" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40" s="58"/>
       <c r="C40" s="58"/>
       <c r="D40" s="55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -23968,7 +23966,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -23976,17 +23974,17 @@
         <v>0</v>
       </c>
       <c r="C42" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="58" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B43" s="58"/>
       <c r="C43" s="58"/>
       <c r="D43" s="55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -23994,7 +23992,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -24002,7 +24000,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="54" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -24010,7 +24008,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="54" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -24018,7 +24016,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="54" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -24026,7 +24024,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -24034,17 +24032,17 @@
         <v>6</v>
       </c>
       <c r="C49" s="54" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B50" s="58"/>
       <c r="C50" s="58"/>
       <c r="D50" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -24052,7 +24050,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="54" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -24060,7 +24058,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="54" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -24068,17 +24066,17 @@
         <v>3</v>
       </c>
       <c r="C53" s="54" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="58" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B54" s="58"/>
       <c r="C54" s="58"/>
       <c r="D54" s="55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -24086,7 +24084,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -24094,17 +24092,17 @@
         <v>0</v>
       </c>
       <c r="C56" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="58" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B57" s="58"/>
       <c r="C57" s="58"/>
       <c r="D57" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -24112,7 +24110,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -24120,7 +24118,7 @@
         <v>2</v>
       </c>
       <c r="C59" s="59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -24128,7 +24126,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -24136,7 +24134,7 @@
         <v>4</v>
       </c>
       <c r="C61" s="59" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -24144,7 +24142,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -24152,27 +24150,27 @@
         <v>6</v>
       </c>
       <c r="C63" s="60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="57" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B64" s="57"/>
       <c r="C64" s="57"/>
       <c r="D64" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="58" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B65" s="58"/>
       <c r="C65" s="58"/>
       <c r="D65" s="55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -24180,7 +24178,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -24188,17 +24186,17 @@
         <v>0</v>
       </c>
       <c r="C67" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B68" s="58"/>
       <c r="C68" s="58"/>
       <c r="D68" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -24206,7 +24204,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -24214,37 +24212,37 @@
         <v>0</v>
       </c>
       <c r="C70" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B71" s="61"/>
       <c r="C71" s="61"/>
       <c r="D71" s="52" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="61" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B72" s="61"/>
       <c r="C72" s="61"/>
       <c r="D72" s="52" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="62" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B73" s="62"/>
       <c r="C73" s="62"/>
       <c r="D73" s="55" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -24252,7 +24250,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -24260,17 +24258,17 @@
         <v>0</v>
       </c>
       <c r="C75" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="58" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B76" s="58"/>
       <c r="C76" s="58"/>
       <c r="D76" s="55" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -24278,7 +24276,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -24286,17 +24284,17 @@
         <v>0</v>
       </c>
       <c r="C78" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="63" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B79" s="63"/>
       <c r="C79" s="63"/>
       <c r="D79" s="64" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -24304,7 +24302,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -24312,157 +24310,157 @@
         <v>0</v>
       </c>
       <c r="C81" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B82" s="63"/>
       <c r="C82" s="63"/>
       <c r="D82" s="64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B83" s="65"/>
       <c r="C83" s="65"/>
       <c r="D83" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B84" s="65"/>
       <c r="C84" s="65"/>
       <c r="D84" s="50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B85" s="63"/>
       <c r="C85" s="63"/>
       <c r="D85" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B86" s="63"/>
       <c r="C86" s="63"/>
       <c r="D86" s="64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" s="63"/>
       <c r="C87" s="63"/>
       <c r="D87" s="64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B88" s="63"/>
       <c r="C88" s="63"/>
       <c r="D88" s="64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B89" s="63"/>
       <c r="C89" s="63"/>
       <c r="D89" s="64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B90" s="63"/>
       <c r="C90" s="63"/>
       <c r="D90" s="64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="63" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B91" s="63"/>
       <c r="C91" s="63"/>
       <c r="D91" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="63" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B92" s="63"/>
       <c r="C92" s="63"/>
       <c r="D92" s="64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="63" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B93" s="63"/>
       <c r="C93" s="63"/>
       <c r="D93" s="64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B94" s="65"/>
       <c r="C94" s="65"/>
       <c r="D94" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B95" s="65"/>
       <c r="C95" s="65"/>
       <c r="D95" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B96" s="58"/>
       <c r="C96" s="58"/>
       <c r="D96" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -24470,7 +24468,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -24478,67 +24476,67 @@
         <v>0</v>
       </c>
       <c r="C98" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B99" s="63"/>
       <c r="C99" s="63"/>
       <c r="D99" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B100" s="63"/>
       <c r="C100" s="63"/>
       <c r="D100" s="64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B101" s="63"/>
       <c r="C101" s="63"/>
       <c r="D101" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B102" s="63"/>
       <c r="C102" s="63"/>
       <c r="D102" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="63" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B103" s="63"/>
       <c r="C103" s="63"/>
       <c r="D103" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="58" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B104" s="58"/>
       <c r="C104" s="58"/>
       <c r="D104" s="55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -24546,7 +24544,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -24554,17 +24552,17 @@
         <v>0</v>
       </c>
       <c r="C106" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="58" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B107" s="58"/>
       <c r="C107" s="58"/>
       <c r="D107" s="55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -24572,7 +24570,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="54" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -24580,7 +24578,7 @@
         <v>2</v>
       </c>
       <c r="C109" s="54" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -24588,7 +24586,7 @@
         <v>3</v>
       </c>
       <c r="C110" s="54" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="68" customFormat="1" x14ac:dyDescent="0.3">
@@ -24597,17 +24595,17 @@
         <v>4</v>
       </c>
       <c r="C111" s="54" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="112" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B112" s="58"/>
       <c r="C112" s="58"/>
       <c r="D112" s="55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -24615,7 +24613,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -24623,17 +24621,17 @@
         <v>0</v>
       </c>
       <c r="C114" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B115" s="58"/>
       <c r="C115" s="58"/>
       <c r="D115" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -24641,7 +24639,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -24649,7 +24647,7 @@
         <v>2</v>
       </c>
       <c r="C117" s="54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -24657,7 +24655,7 @@
         <v>3</v>
       </c>
       <c r="C118" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -24665,7 +24663,7 @@
         <v>4</v>
       </c>
       <c r="C119" s="54" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -24673,7 +24671,7 @@
         <v>5</v>
       </c>
       <c r="C120" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -24681,77 +24679,77 @@
         <v>6</v>
       </c>
       <c r="C121" s="54" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="122" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="63" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B122" s="63"/>
       <c r="C122" s="63"/>
       <c r="D122" s="64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B123" s="63"/>
       <c r="C123" s="63"/>
       <c r="D123" s="64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B124" s="65"/>
       <c r="C124" s="65"/>
       <c r="D124" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B125" s="65"/>
       <c r="C125" s="65"/>
       <c r="D125" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B126" s="65"/>
       <c r="C126" s="65"/>
       <c r="D126" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B127" s="65"/>
       <c r="C127" s="65"/>
       <c r="D127" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="58" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B128" s="58"/>
       <c r="C128" s="58"/>
       <c r="D128" s="55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -24759,7 +24757,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -24767,17 +24765,17 @@
         <v>0</v>
       </c>
       <c r="C130" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="131" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="58" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B131" s="58"/>
       <c r="C131" s="58"/>
       <c r="D131" s="55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.3">
@@ -24786,7 +24784,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.3">
@@ -24795,7 +24793,7 @@
         <v>2</v>
       </c>
       <c r="C133" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.3">
@@ -24804,7 +24802,7 @@
         <v>3</v>
       </c>
       <c r="C134" s="54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="135" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.3">
@@ -24813,17 +24811,17 @@
         <v>4</v>
       </c>
       <c r="C135" s="54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="136" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="58" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B136" s="58"/>
       <c r="C136" s="58"/>
       <c r="D136" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -24831,7 +24829,7 @@
         <v>1</v>
       </c>
       <c r="C137" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -24839,107 +24837,107 @@
         <v>0</v>
       </c>
       <c r="C138" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B139" s="69"/>
       <c r="C139" s="69"/>
       <c r="D139" s="64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B140" s="69"/>
       <c r="C140" s="69"/>
       <c r="D140" s="64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B141" s="69"/>
       <c r="C141" s="69"/>
       <c r="D141" s="64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B142" s="69"/>
       <c r="C142" s="69"/>
       <c r="D142" s="64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B143" s="69"/>
       <c r="C143" s="69"/>
       <c r="D143" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B144" s="69"/>
       <c r="C144" s="69"/>
       <c r="D144" s="64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:5" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="69" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B145" s="69"/>
       <c r="C145" s="69"/>
       <c r="D145" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="146" spans="1:5" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B146" s="69"/>
       <c r="C146" s="69"/>
       <c r="D146" s="64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="147" spans="1:5" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B147" s="69"/>
       <c r="C147" s="69"/>
       <c r="D147" s="64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="148" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B148" s="58"/>
       <c r="C148" s="58"/>
       <c r="D148" s="55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -24947,7 +24945,7 @@
         <v>1</v>
       </c>
       <c r="C149" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D149" s="54"/>
       <c r="E149" s="54"/>
@@ -24957,19 +24955,19 @@
         <v>0</v>
       </c>
       <c r="C150" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D150" s="54"/>
       <c r="E150" s="54"/>
     </row>
     <row r="151" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B151" s="58"/>
       <c r="C151" s="58"/>
       <c r="D151" s="55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -24977,7 +24975,7 @@
         <v>1</v>
       </c>
       <c r="C152" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D152" s="54"/>
     </row>
@@ -24986,18 +24984,18 @@
         <v>0</v>
       </c>
       <c r="C153" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D153" s="54"/>
     </row>
     <row r="154" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B154" s="58"/>
       <c r="C154" s="58"/>
       <c r="D154" s="55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -25005,7 +25003,7 @@
         <v>1</v>
       </c>
       <c r="C155" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D155" s="54"/>
       <c r="E155" s="54"/>
@@ -25015,19 +25013,19 @@
         <v>0</v>
       </c>
       <c r="C156" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D156" s="54"/>
       <c r="E156" s="54"/>
     </row>
     <row r="157" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B157" s="58"/>
       <c r="C157" s="58"/>
       <c r="D157" s="55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -25035,7 +25033,7 @@
         <v>1</v>
       </c>
       <c r="C158" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D158" s="54"/>
     </row>
@@ -25044,18 +25042,18 @@
         <v>0</v>
       </c>
       <c r="C159" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D159" s="54"/>
     </row>
     <row r="160" spans="1:5" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B160" s="58"/>
       <c r="C160" s="58"/>
       <c r="D160" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -25063,7 +25061,7 @@
         <v>1</v>
       </c>
       <c r="C161" s="54" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -25071,7 +25069,7 @@
         <v>2</v>
       </c>
       <c r="C162" s="54" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -25079,7 +25077,7 @@
         <v>3</v>
       </c>
       <c r="C163" s="54" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -25087,7 +25085,7 @@
         <v>4</v>
       </c>
       <c r="C164" s="54" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="165" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.3">
@@ -25096,17 +25094,17 @@
         <v>5</v>
       </c>
       <c r="C165" s="54" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="166" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B166" s="58"/>
       <c r="C166" s="58"/>
       <c r="D166" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -25114,7 +25112,7 @@
         <v>1</v>
       </c>
       <c r="C167" s="50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -25122,7 +25120,7 @@
         <v>2</v>
       </c>
       <c r="C168" s="50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -25130,7 +25128,7 @@
         <v>3</v>
       </c>
       <c r="C169" s="50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -25138,69 +25136,69 @@
         <v>4</v>
       </c>
       <c r="C170" s="50" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D171" s="50" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F171" s="70"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="49" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D172" s="50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F172" s="70"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="D173" s="50" t="s">
         <v>192</v>
-      </c>
-      <c r="D173" s="50" t="s">
-        <v>193</v>
       </c>
       <c r="F173" s="70"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D174" s="50" t="s">
         <v>194</v>
-      </c>
-      <c r="D174" s="50" t="s">
-        <v>195</v>
       </c>
       <c r="F174" s="70"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="D175" s="50" t="s">
         <v>196</v>
-      </c>
-      <c r="D175" s="50" t="s">
-        <v>197</v>
       </c>
       <c r="F175" s="70"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D176" s="50" t="s">
         <v>198</v>
-      </c>
-      <c r="D176" s="50" t="s">
-        <v>199</v>
       </c>
       <c r="F176" s="70"/>
     </row>
     <row r="177" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="49" t="s">
+        <v>560</v>
+      </c>
+      <c r="D177" s="55" t="s">
         <v>561</v>
-      </c>
-      <c r="D177" s="55" t="s">
-        <v>562</v>
       </c>
       <c r="E177" s="55"/>
       <c r="F177" s="55"/>
@@ -25210,7 +25208,7 @@
         <v>1</v>
       </c>
       <c r="C178" s="54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -25218,1079 +25216,1079 @@
         <v>2</v>
       </c>
       <c r="C179" s="54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B180" s="71"/>
       <c r="C180" s="71"/>
       <c r="D180" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B181" s="71"/>
       <c r="C181" s="71"/>
       <c r="D181" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B182" s="71"/>
       <c r="C182" s="71"/>
       <c r="D182" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B183" s="71"/>
       <c r="C183" s="71"/>
       <c r="D183" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B184" s="71"/>
       <c r="C184" s="71"/>
       <c r="D184" s="50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B185" s="71"/>
       <c r="C185" s="71"/>
       <c r="D185" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B186" s="71"/>
       <c r="C186" s="71"/>
       <c r="D186" s="50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B187" s="71"/>
       <c r="C187" s="71"/>
       <c r="D187" s="50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B188" s="71"/>
       <c r="C188" s="71"/>
       <c r="D188" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D189" s="50" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D190" s="50" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D191" s="50" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="49" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D192" s="50" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D193" s="50" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D194" s="50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="49" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D195" s="50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D196" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D197" s="50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="72" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B198" s="72"/>
       <c r="C198" s="72"/>
       <c r="D198" s="50" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="72" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B199" s="72"/>
       <c r="C199" s="72"/>
       <c r="D199" s="50" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="72" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B200" s="72"/>
       <c r="C200" s="72"/>
       <c r="D200" s="50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="72" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B201" s="72"/>
       <c r="C201" s="72"/>
       <c r="D201" s="50" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B202" s="72"/>
       <c r="C202" s="72"/>
       <c r="D202" s="50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="72" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B203" s="72"/>
       <c r="C203" s="72"/>
       <c r="D203" s="50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="72" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B204" s="72"/>
       <c r="C204" s="72"/>
       <c r="D204" s="50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="72" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B205" s="72"/>
       <c r="C205" s="72"/>
       <c r="D205" s="50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B206" s="72"/>
       <c r="C206" s="72"/>
       <c r="D206" s="50" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="72" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B207" s="72"/>
       <c r="C207" s="72"/>
       <c r="D207" s="50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="73" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B208" s="73"/>
       <c r="C208" s="73"/>
       <c r="D208" s="50" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B209" s="73"/>
       <c r="C209" s="73"/>
       <c r="D209" s="50" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B210" s="73"/>
       <c r="C210" s="73"/>
       <c r="D210" s="50" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B211" s="73"/>
       <c r="C211" s="73"/>
       <c r="D211" s="50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="73" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B212" s="73"/>
       <c r="C212" s="73"/>
       <c r="D212" s="50" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="73" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B213" s="73"/>
       <c r="C213" s="73"/>
       <c r="D213" s="50" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="73" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B214" s="73"/>
       <c r="C214" s="73"/>
       <c r="D214" s="50" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="73" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B215" s="73"/>
       <c r="C215" s="73"/>
       <c r="D215" s="50" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="73" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B216" s="73"/>
       <c r="C216" s="73"/>
       <c r="D216" s="50" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="73" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B217" s="73"/>
       <c r="C217" s="73"/>
       <c r="D217" s="50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="74" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B218" s="74"/>
       <c r="C218" s="74"/>
       <c r="D218" s="50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B219" s="74"/>
       <c r="C219" s="74"/>
       <c r="D219" s="50" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B220" s="74"/>
       <c r="C220" s="74"/>
       <c r="D220" s="50" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B221" s="74"/>
       <c r="C221" s="74"/>
       <c r="D221" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="74" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B222" s="74"/>
       <c r="C222" s="74"/>
       <c r="D222" s="50" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="74" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B223" s="74"/>
       <c r="C223" s="74"/>
       <c r="D223" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="74" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B224" s="74"/>
       <c r="C224" s="74"/>
       <c r="D224" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="74" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B225" s="74"/>
       <c r="C225" s="74"/>
       <c r="D225" s="50" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="74" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B226" s="74"/>
       <c r="C226" s="74"/>
       <c r="D226" s="50" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="74" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B227" s="74"/>
       <c r="C227" s="74"/>
       <c r="D227" s="50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="75" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B228" s="75"/>
       <c r="C228" s="75"/>
       <c r="D228" s="50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="75" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B229" s="75"/>
       <c r="C229" s="75"/>
       <c r="D229" s="50" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B230" s="75"/>
       <c r="C230" s="75"/>
       <c r="D230" s="50" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="75" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B231" s="75"/>
       <c r="C231" s="75"/>
       <c r="D231" s="50" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="75" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B232" s="75"/>
       <c r="C232" s="75"/>
       <c r="D232" s="50" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="75" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B233" s="75"/>
       <c r="C233" s="75"/>
       <c r="D233" s="50" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="75" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B234" s="75"/>
       <c r="C234" s="75"/>
       <c r="D234" s="50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="75" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B235" s="75"/>
       <c r="C235" s="75"/>
       <c r="D235" s="50" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="75" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B236" s="75"/>
       <c r="C236" s="75"/>
       <c r="D236" s="50" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="75" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B237" s="75"/>
       <c r="C237" s="75"/>
       <c r="D237" s="50" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="73" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B238" s="73"/>
       <c r="C238" s="73"/>
       <c r="D238" s="50" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="73" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B239" s="73"/>
       <c r="C239" s="73"/>
       <c r="D239" s="50" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="73" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B240" s="73"/>
       <c r="C240" s="73"/>
       <c r="D240" s="50" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="73" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B241" s="73"/>
       <c r="C241" s="73"/>
       <c r="D241" s="50" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="73" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B242" s="73"/>
       <c r="C242" s="73"/>
       <c r="D242" s="50" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="73" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B243" s="73"/>
       <c r="C243" s="73"/>
       <c r="D243" s="50" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="73" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B244" s="73"/>
       <c r="C244" s="73"/>
       <c r="D244" s="50" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="73" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B245" s="73"/>
       <c r="C245" s="73"/>
       <c r="D245" s="50" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="73" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B246" s="73"/>
       <c r="C246" s="73"/>
       <c r="D246" s="50" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="73" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B247" s="73"/>
       <c r="C247" s="73"/>
       <c r="D247" s="50" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="74" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B248" s="74"/>
       <c r="C248" s="74"/>
       <c r="D248" s="50" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="74" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B249" s="74"/>
       <c r="C249" s="74"/>
       <c r="D249" s="50" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="74" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B250" s="74"/>
       <c r="C250" s="74"/>
       <c r="D250" s="50" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="74" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B251" s="74"/>
       <c r="C251" s="74"/>
       <c r="D251" s="50" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="74" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B252" s="74"/>
       <c r="C252" s="74"/>
       <c r="D252" s="50" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B253" s="74"/>
       <c r="C253" s="74"/>
       <c r="D253" s="50" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="74" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B254" s="74"/>
       <c r="C254" s="74"/>
       <c r="D254" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="74" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B255" s="74"/>
       <c r="C255" s="74"/>
       <c r="D255" s="50" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="74" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B256" s="74"/>
       <c r="C256" s="74"/>
       <c r="D256" s="50" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="74" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B257" s="74"/>
       <c r="C257" s="74"/>
       <c r="D257" s="50" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B258" s="76"/>
       <c r="C258" s="76"/>
       <c r="D258" s="50" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B259" s="76"/>
       <c r="C259" s="76"/>
       <c r="D259" s="50" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="76" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B260" s="76"/>
       <c r="C260" s="76"/>
       <c r="D260" s="50" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="76" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B261" s="76"/>
       <c r="C261" s="76"/>
       <c r="D261" s="50" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="76" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B262" s="76"/>
       <c r="C262" s="76"/>
       <c r="D262" s="50" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="76" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B263" s="76"/>
       <c r="C263" s="76"/>
       <c r="D263" s="50" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="76" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B264" s="76"/>
       <c r="C264" s="76"/>
       <c r="D264" s="50" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="76" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B265" s="76"/>
       <c r="C265" s="76"/>
       <c r="D265" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="76" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B266" s="76"/>
       <c r="C266" s="76"/>
       <c r="D266" s="50" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="76" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B267" s="76"/>
       <c r="C267" s="76"/>
       <c r="D267" s="50" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="73" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B268" s="73"/>
       <c r="C268" s="73"/>
       <c r="D268" s="50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="73" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B269" s="73"/>
       <c r="C269" s="73"/>
       <c r="D269" s="50" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="73" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B270" s="73"/>
       <c r="C270" s="73"/>
       <c r="D270" s="50" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="73" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B271" s="73"/>
       <c r="C271" s="73"/>
       <c r="D271" s="50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="73" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B272" s="73"/>
       <c r="C272" s="73"/>
       <c r="D272" s="50" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="73" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B273" s="73"/>
       <c r="C273" s="73"/>
       <c r="D273" s="50" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="73" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B274" s="73"/>
       <c r="C274" s="73"/>
       <c r="D274" s="50" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="73" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B275" s="73"/>
       <c r="C275" s="73"/>
       <c r="D275" s="50" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B276" s="73"/>
       <c r="C276" s="73"/>
       <c r="D276" s="50" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="73" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B277" s="73"/>
       <c r="C277" s="73"/>
       <c r="D277" s="50" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="74" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B278" s="74"/>
       <c r="C278" s="74"/>
       <c r="D278" s="50" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="74" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B279" s="74"/>
       <c r="C279" s="74"/>
       <c r="D279" s="50" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="74" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B280" s="74"/>
       <c r="C280" s="74"/>
       <c r="D280" s="50" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="74" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B281" s="74"/>
       <c r="C281" s="74"/>
       <c r="D281" s="50" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="74" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B282" s="74"/>
       <c r="C282" s="74"/>
       <c r="D282" s="50" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="74" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B283" s="74"/>
       <c r="C283" s="74"/>
       <c r="D283" s="50" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="74" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B284" s="74"/>
       <c r="C284" s="74"/>
       <c r="D284" s="50" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="74" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B285" s="74"/>
       <c r="C285" s="74"/>
       <c r="D285" s="50" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="74" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B286" s="74"/>
       <c r="C286" s="74"/>
       <c r="D286" s="50" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="74" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B287" s="74"/>
       <c r="C287" s="74"/>
       <c r="D287" s="50" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="288" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="58" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B288" s="58"/>
       <c r="C288" s="58"/>
       <c r="D288" s="55" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -26298,7 +26296,7 @@
         <v>1</v>
       </c>
       <c r="C289" s="54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -26306,7 +26304,7 @@
         <v>2</v>
       </c>
       <c r="C290" s="54" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -26314,117 +26312,117 @@
         <v>3</v>
       </c>
       <c r="C291" s="54" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="292" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="63" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B292" s="63"/>
       <c r="C292" s="63"/>
       <c r="D292" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="293" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="63" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B293" s="63"/>
       <c r="C293" s="63"/>
       <c r="D293" s="64" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="294" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="63" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B294" s="63"/>
       <c r="C294" s="63"/>
       <c r="D294" s="64" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="295" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="77" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B295" s="77"/>
       <c r="C295" s="77"/>
       <c r="D295" s="64" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="296" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="77" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B296" s="77"/>
       <c r="C296" s="77"/>
       <c r="D296" s="64" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="297" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="63" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B297" s="63"/>
       <c r="C297" s="63"/>
       <c r="D297" s="64" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="298" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="63" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B298" s="63"/>
       <c r="C298" s="63"/>
       <c r="D298" s="64" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="299" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="63" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B299" s="63"/>
       <c r="C299" s="63"/>
       <c r="D299" s="64" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="300" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="63" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B300" s="63"/>
       <c r="C300" s="63"/>
       <c r="D300" s="64" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="301" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="63" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B301" s="63"/>
       <c r="C301" s="63"/>
       <c r="D301" s="64" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="302" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="78" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B302" s="78"/>
       <c r="C302" s="78"/>
       <c r="D302" s="55" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -26432,7 +26430,7 @@
         <v>1</v>
       </c>
       <c r="C303" s="54" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -26440,7 +26438,7 @@
         <v>2</v>
       </c>
       <c r="C304" s="54" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -26448,7 +26446,7 @@
         <v>3</v>
       </c>
       <c r="C305" s="54" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -26456,7 +26454,7 @@
         <v>4</v>
       </c>
       <c r="C306" s="54" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -26464,7 +26462,7 @@
         <v>5</v>
       </c>
       <c r="C307" s="54" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -26472,17 +26470,17 @@
         <v>6</v>
       </c>
       <c r="C308" s="54" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="309" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="58" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B309" s="58"/>
       <c r="C309" s="58"/>
       <c r="D309" s="55" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -26490,7 +26488,7 @@
         <v>1</v>
       </c>
       <c r="C310" s="54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -26498,7 +26496,7 @@
         <v>2</v>
       </c>
       <c r="C311" s="54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -26506,37 +26504,37 @@
         <v>3</v>
       </c>
       <c r="C312" s="54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="313" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="63" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B313" s="63"/>
       <c r="C313" s="63"/>
       <c r="D313" s="64" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="314" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="63" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B314" s="63"/>
       <c r="C314" s="63"/>
       <c r="D314" s="64" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="315" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="58" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B315" s="58"/>
       <c r="C315" s="58"/>
       <c r="D315" s="55" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -26544,7 +26542,7 @@
         <v>1</v>
       </c>
       <c r="C316" s="54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -26552,7 +26550,7 @@
         <v>2</v>
       </c>
       <c r="C317" s="54" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -26560,7 +26558,7 @@
         <v>3</v>
       </c>
       <c r="C318" s="54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -26568,17 +26566,17 @@
         <v>4</v>
       </c>
       <c r="C319" s="54" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="320" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="58" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B320" s="58"/>
       <c r="C320" s="58"/>
       <c r="D320" s="55" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -26586,7 +26584,7 @@
         <v>1</v>
       </c>
       <c r="C321" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -26594,17 +26592,17 @@
         <v>0</v>
       </c>
       <c r="C322" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="323" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="58" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B323" s="58"/>
       <c r="C323" s="58"/>
       <c r="D323" s="55" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -26612,7 +26610,7 @@
         <v>1</v>
       </c>
       <c r="C324" s="54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -26620,7 +26618,7 @@
         <v>2</v>
       </c>
       <c r="C325" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -26628,7 +26626,7 @@
         <v>3</v>
       </c>
       <c r="C326" s="54" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -26636,7 +26634,7 @@
         <v>4</v>
       </c>
       <c r="C327" s="54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -26644,7 +26642,7 @@
         <v>5</v>
       </c>
       <c r="C328" s="54" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -26652,7 +26650,7 @@
         <v>6</v>
       </c>
       <c r="C329" s="54" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -26660,7 +26658,7 @@
         <v>7</v>
       </c>
       <c r="C330" s="54" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
@@ -26668,7 +26666,7 @@
         <v>8</v>
       </c>
       <c r="C331" s="54" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -26676,17 +26674,17 @@
         <v>9</v>
       </c>
       <c r="C332" s="54" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="333" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="58" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B333" s="58"/>
       <c r="C333" s="58"/>
       <c r="D333" s="55" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
@@ -26694,7 +26692,7 @@
         <v>1</v>
       </c>
       <c r="C334" s="54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
@@ -26702,7 +26700,7 @@
         <v>2</v>
       </c>
       <c r="C335" s="54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -26710,7 +26708,7 @@
         <v>3</v>
       </c>
       <c r="C336" s="54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
@@ -26718,7 +26716,7 @@
         <v>4</v>
       </c>
       <c r="C337" s="54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
@@ -26726,7 +26724,7 @@
         <v>5</v>
       </c>
       <c r="C338" s="54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -26734,7 +26732,7 @@
         <v>6</v>
       </c>
       <c r="C339" s="54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -26742,17 +26740,17 @@
         <v>7</v>
       </c>
       <c r="C340" s="54" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="341" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="58" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B341" s="58"/>
       <c r="C341" s="58"/>
       <c r="D341" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
@@ -26760,7 +26758,7 @@
         <v>1</v>
       </c>
       <c r="C342" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -26768,17 +26766,17 @@
         <v>0</v>
       </c>
       <c r="C343" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="344" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="58" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B344" s="58"/>
       <c r="C344" s="58"/>
       <c r="D344" s="79" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
@@ -26786,7 +26784,7 @@
         <v>1</v>
       </c>
       <c r="C345" s="80" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
@@ -26794,7 +26792,7 @@
         <v>2</v>
       </c>
       <c r="C346" s="80" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
@@ -26802,7 +26800,7 @@
         <v>3</v>
       </c>
       <c r="C347" s="80" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
@@ -26810,17 +26808,17 @@
         <v>4</v>
       </c>
       <c r="C348" s="80" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="349" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A349" s="58" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B349" s="58"/>
       <c r="C349" s="58"/>
       <c r="D349" s="55" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
@@ -26828,7 +26826,7 @@
         <v>1</v>
       </c>
       <c r="C350" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
@@ -26836,7 +26834,7 @@
         <v>2</v>
       </c>
       <c r="C351" s="54" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
@@ -26844,7 +26842,7 @@
         <v>3</v>
       </c>
       <c r="C352" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.3">
@@ -26852,7 +26850,7 @@
         <v>4</v>
       </c>
       <c r="C353" s="54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.3">
@@ -26860,7 +26858,7 @@
         <v>5</v>
       </c>
       <c r="C354" s="54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.3">
@@ -26868,7 +26866,7 @@
         <v>6</v>
       </c>
       <c r="C355" s="54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.3">
@@ -26876,7 +26874,7 @@
         <v>7</v>
       </c>
       <c r="C356" s="54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.3">
@@ -26884,7 +26882,7 @@
         <v>8</v>
       </c>
       <c r="C357" s="54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -26898,7 +26896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0055B15-3C87-4782-B283-38681BBA8F54}">
   <dimension ref="A1:I213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A213" sqref="A1:A213"/>
     </sheetView>
   </sheetViews>
@@ -26909,628 +26907,628 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
         <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
         <v>69</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
         <v>76</v>
-      </c>
-      <c r="B19" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
         <v>79</v>
-      </c>
-      <c r="B22" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
         <v>92</v>
-      </c>
-      <c r="B33" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="25" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" t="s">
         <v>109</v>
-      </c>
-      <c r="B45" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
         <v>111</v>
-      </c>
-      <c r="B46" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" t="s">
         <v>117</v>
-      </c>
-      <c r="B47" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="22" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" t="s">
         <v>126</v>
-      </c>
-      <c r="B51" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" t="s">
         <v>129</v>
-      </c>
-      <c r="B55" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" t="s">
         <v>131</v>
-      </c>
-      <c r="B56" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I57" s="10"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I58" s="10"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="25" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="25" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="25" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="25" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="25" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="29" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="29" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" t="s">
         <v>152</v>
-      </c>
-      <c r="B76" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B77" t="s">
         <v>201</v>
-      </c>
-      <c r="B77" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C78" s="34"/>
       <c r="D78" s="34"/>
@@ -27538,1082 +27536,1082 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B79" t="s">
         <v>192</v>
-      </c>
-      <c r="B79" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B80" t="s">
         <v>194</v>
-      </c>
-      <c r="B80" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B81" t="s">
         <v>196</v>
-      </c>
-      <c r="B81" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B82" t="s">
         <v>198</v>
-      </c>
-      <c r="B82" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="36" t="s">
+        <v>560</v>
+      </c>
+      <c r="B83" t="s">
         <v>561</v>
-      </c>
-      <c r="B83" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B86" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B87" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B88" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B92" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B93" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B94" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B95" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B96" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B98" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B99" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B100" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B101" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B102" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B103" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B104" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B105" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B106" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B107" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B108" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B109" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B110" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B111" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B112" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B113" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B114" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B115" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B116" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B117" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B118" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B119" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B120" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B121" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B122" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B123" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B124" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B125" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B126" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B127" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B128" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B129" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B130" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B131" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B132" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B133" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B134" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B135" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B136" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B137" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B138" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B139" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B140" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B141" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B142" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B143" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B144" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B145" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B146" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B147" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B148" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B149" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B150" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B151" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B152" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B153" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B154" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B155" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B156" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B157" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B158" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B159" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B160" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B161" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B162" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B163" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B164" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B165" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B166" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B167" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B168" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B169" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B170" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B171" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B172" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B173" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B174" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B175" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B176" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B177" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B178" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B179" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B180" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B181" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B182" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B183" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B184" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B185" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B186" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B187" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B188" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B189" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B190" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B191" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="B192" t="s">
         <v>536</v>
-      </c>
-      <c r="B192" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B193" s="41" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="39" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B194" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="39" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B195" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="39" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B196" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="39" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B197" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="35" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B198" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="38" t="s">
+        <v>549</v>
+      </c>
+      <c r="B199" t="s">
         <v>550</v>
-      </c>
-      <c r="B199" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="B200" t="s">
         <v>552</v>
-      </c>
-      <c r="B200" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="36" t="s">
+        <v>553</v>
+      </c>
+      <c r="B201" t="s">
         <v>554</v>
-      </c>
-      <c r="B201" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="36" t="s">
+        <v>555</v>
+      </c>
+      <c r="B202" t="s">
         <v>556</v>
-      </c>
-      <c r="B202" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="B203" t="s">
         <v>558</v>
-      </c>
-      <c r="B203" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="B204" t="s">
         <v>564</v>
-      </c>
-      <c r="B204" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="38" t="s">
+        <v>565</v>
+      </c>
+      <c r="B205" t="s">
         <v>566</v>
-      </c>
-      <c r="B205" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="B206" t="s">
         <v>568</v>
-      </c>
-      <c r="B206" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="B207" s="41" t="s">
         <v>570</v>
-      </c>
-      <c r="B207" s="41" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="B208" t="s">
         <v>572</v>
-      </c>
-      <c r="B208" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="37" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B209" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="36" t="s">
+        <v>581</v>
+      </c>
+      <c r="B210" s="41" t="s">
         <v>582</v>
-      </c>
-      <c r="B210" s="41" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="36" t="s">
+        <v>584</v>
+      </c>
+      <c r="B211" s="41" t="s">
         <v>585</v>
-      </c>
-      <c r="B211" s="41" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="B212" s="42" t="s">
         <v>587</v>
-      </c>
-      <c r="B212" s="42" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="B213" t="s">
         <v>589</v>
-      </c>
-      <c r="B213" t="s">
-        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/data/Yield determination survey.xlsx
+++ b/data/Yield determination survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/bean-yield-estimation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAC63A9-8E72-C94D-9893-89E48C5D9681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57298A16-26B5-364E-B784-BE94C46124BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="1" xr2:uid="{86CAF366-0E07-4B88-A0CE-48FCDD557E7E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17140" activeTab="1" xr2:uid="{86CAF366-0E07-4B88-A0CE-48FCDD557E7E}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="15" r:id="rId1"/>
@@ -2942,9 +2942,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF0E47F-26FF-449C-9A17-14B3E133576A}">
   <dimension ref="A1:HE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BT15" sqref="BT15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DD22" sqref="DD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13805,7 +13805,7 @@
         <v>0.59</v>
       </c>
       <c r="FL17" s="19">
-        <v>59</v>
+        <v>0.59</v>
       </c>
       <c r="FM17" s="19">
         <v>0.49</v>
@@ -15108,7 +15108,7 @@
         <v>0.72</v>
       </c>
       <c r="FS19" s="19">
-        <v>73</v>
+        <v>0.73</v>
       </c>
       <c r="FT19" s="19">
         <v>0.68</v>
@@ -15764,7 +15764,7 @@
         <v>0.73</v>
       </c>
       <c r="FX20" s="19">
-        <v>82</v>
+        <v>0.82</v>
       </c>
       <c r="FY20" s="19">
         <v>0.64</v>
@@ -22599,7 +22599,7 @@
         <v>0.59</v>
       </c>
       <c r="DD31" s="19">
-        <v>54</v>
+        <v>0.54</v>
       </c>
       <c r="DE31" s="19">
         <v>0.55000000000000004</v>
@@ -28612,12 +28612,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28850,15 +28847,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{340854E6-8AC4-4888-9821-CB6C4527AC16}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62D5C52C-9254-4E19-BF19-0D66783AFADA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b3d1e520-21e6-4155-bb7a-e1a3334555d4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b20c59fa-8c47-4731-b62d-1dc5066dadc3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28883,18 +28892,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62D5C52C-9254-4E19-BF19-0D66783AFADA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{340854E6-8AC4-4888-9821-CB6C4527AC16}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b3d1e520-21e6-4155-bb7a-e1a3334555d4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b20c59fa-8c47-4731-b62d-1dc5066dadc3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/Yield determination survey.xlsx
+++ b/data/Yield determination survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/bean-yield-estimation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57298A16-26B5-364E-B784-BE94C46124BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE848F04-563D-3844-86E3-741A440DDDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17140" activeTab="1" xr2:uid="{86CAF366-0E07-4B88-A0CE-48FCDD557E7E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17140" xr2:uid="{86CAF366-0E07-4B88-A0CE-48FCDD557E7E}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="15" r:id="rId1"/>
@@ -2519,9 +2519,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2559,7 +2559,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2665,7 +2665,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2807,7 +2807,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2817,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9955A0D-2E62-4E12-89E7-E6F298C851E2}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2942,7 +2942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF0E47F-26FF-449C-9A17-14B3E133576A}">
   <dimension ref="A1:HE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CU1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="DD22" sqref="DD22"/>
     </sheetView>
@@ -28612,9 +28612,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28847,27 +28850,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62D5C52C-9254-4E19-BF19-0D66783AFADA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{340854E6-8AC4-4888-9821-CB6C4527AC16}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b3d1e520-21e6-4155-bb7a-e1a3334555d4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b20c59fa-8c47-4731-b62d-1dc5066dadc3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28892,9 +28883,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{340854E6-8AC4-4888-9821-CB6C4527AC16}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62D5C52C-9254-4E19-BF19-0D66783AFADA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b3d1e520-21e6-4155-bb7a-e1a3334555d4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b20c59fa-8c47-4731-b62d-1dc5066dadc3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>